--- a/biology/Zoologie/Caviomorpha/Caviomorpha.xlsx
+++ b/biology/Zoologie/Caviomorpha/Caviomorpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caviomorphes (Caviomorpha) forment un infra-ordre (ou plus exactement un micro-ordre) de rongeurs qui comprend les hystricognathes d'Amérique du Sud. La plupart des auteurs le considèrent désormais comme un taxon ou un clade hors classification.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon a été créé pour la première fois en 1955 par les paléontologues américains Albert Elmer Wood (1910-2002) et Bryan Patterson (1909-1979). En 1988, il a été intégré par Carroll au sous-ordre des Hystricognathes (Hystricognathi ou Hystricognatha selon les auteurs), suivi par Nowak en 1999, puis Huchon et Douzery en 2001[1]. Il a été classé comme clade hors rang par P. Coster et al. en 2010[2].
-En effet, au début du XXIe siècle, les études génétiques et morphologiques diverses se recoupent pour soutenir la thèse de relations étroites liant les hystricognathes d'Amérique du Sud (les caviomorphes) et ceux d'Afrique[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon a été créé pour la première fois en 1955 par les paléontologues américains Albert Elmer Wood (1910-2002) et Bryan Patterson (1909-1979). En 1988, il a été intégré par Carroll au sous-ordre des Hystricognathes (Hystricognathi ou Hystricognatha selon les auteurs), suivi par Nowak en 1999, puis Huchon et Douzery en 2001. Il a été classé comme clade hors rang par P. Coster et al. en 2010.
+En effet, au début du XXIe siècle, les études génétiques et morphologiques diverses se recoupent pour soutenir la thèse de relations étroites liant les hystricognathes d'Amérique du Sud (les caviomorphes) et ceux d'Afrique.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-taxons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (20 janv. 2013)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (20 janv. 2013) :
 Cavioidea
 Chinchilloidea
 Erethizontidae
